--- a/biology/Botanique/Essia/Essia.xlsx
+++ b/biology/Botanique/Essia/Essia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Petersianthus macrocarpus
 L’Essia, Petersianthus macrocarpus, est une espèce de plante à fleurs de la famille des Lecythidaceae. C'est un arbre originaire d’Afrique. Il pousse en Afrique tropicale et équatoriale occidentale, de la Guinée au Congo-Kinshasa, surtout dans les zones de forêt humide.
@@ -513,10 +525,12 @@
           <t>Nom</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom scientifique est aussi Combretodendron africanum (Welw.) Excell et Combretodendron macrocarpum (P. Beauv.) Keay.
-Son nom vulgaire est essia mais aussi abalé (en agni)[1] en Côte d’Ivoire, esia (en twi y compris le dialecte asante, dialecte Aowin de l’agni et sehwi) mais aussi abale (en agni) au Ghana[2], minzo, bolinzo ou akasia au Congo-Kinshasa, mubwabwa, bomposo, wulo au Congo-Brazzaville, ngombé en Centrafrique, abin au Gabon, abing au Cameroun, owewe au Nigéria.
+Son nom vulgaire est essia mais aussi abalé (en agni) en Côte d’Ivoire, esia (en twi y compris le dialecte asante, dialecte Aowin de l’agni et sehwi) mais aussi abale (en agni) au Ghana, minzo, bolinzo ou akasia au Congo-Kinshasa, mubwabwa, bomposo, wulo au Congo-Brazzaville, ngombé en Centrafrique, abin au Gabon, abing au Cameroun, owewe au Nigéria.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L’essia est utilisé pour son bois variant du rose au brun violacé.
 </t>
@@ -576,9 +592,11 @@
           <t>Insectes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L’essia est hôte au insectes suivants [3]:
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L’essia est hôte au insectes suivants :
 Imbrasia ertli
 Imbrasia truncata</t>
         </is>
